--- a/components/fpspreadsheet/tests/testooxml_1904.xlsx
+++ b/components/fpspreadsheet/tests/testooxml_1904.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="3" r:id="rId1"/>
@@ -126,15 +126,9 @@
     <t>formatted as nfLongTimeAM</t>
   </si>
   <si>
-    <t>formatted as nfFmtDateTime, dm</t>
-  </si>
-  <si>
     <t>formatted as nfFmtDateTime, ms</t>
   </si>
   <si>
-    <t>formatted as nfFmtDateTime, my</t>
-  </si>
-  <si>
     <t>3 hours 45 mins 12 secs</t>
   </si>
   <si>
@@ -169,22 +163,29 @@
   </si>
   <si>
     <t>minus 59 million + 0.1234, formatted as "currencyRed" with 2 decimals, brackets and EUR</t>
+  </si>
+  <si>
+    <t>formatted as nfDayMonth</t>
+  </si>
+  <si>
+    <t>formatted as nfMonthYear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="181" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="182" formatCode="d/m/yy\ h:mm;@"/>
-    <numFmt numFmtId="183" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="185" formatCode="#,##0.00\ [$$-409]"/>
-    <numFmt numFmtId="187" formatCode="[$$-409]#,##0.00;[Red]\-#,###.00\ [$$-409]"/>
-    <numFmt numFmtId="191" formatCode="#,##0.00\ [$EUR];[Red]\(#,##0.00\ [$EUR]\)"/>
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="168" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ [$$-409]"/>
+    <numFmt numFmtId="171" formatCode="[$$-409]#,##0.00;[Red]\-#,###.00\ [$$-409]"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00\ [$EUR];[Red]\(#,##0.00\ [$EUR]\)"/>
+    <numFmt numFmtId="173" formatCode="yyyy\-mm\-dd\Thh:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -224,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -236,22 +237,23 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="191" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,9 +261,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +301,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -369,7 +371,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,9 +549,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -658,7 +660,7 @@
         <v>0.35360000000000003</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -666,7 +668,7 @@
         <v>0.35360000000000003</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -698,7 +700,7 @@
         <v>59000000.123400003</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -706,7 +708,7 @@
         <v>59000000.123400003</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -714,7 +716,7 @@
         <v>-59000000.123400003</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -722,7 +724,7 @@
         <v>-59000000.123400003</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -730,7 +732,7 @@
         <v>-59000000.123400003</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -747,9 +749,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -813,7 +815,7 @@
         <v>0.35360000000000003</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -821,7 +823,7 @@
         <v>0.35360000000000003</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -853,7 +855,7 @@
         <v>59000000.123400003</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -861,7 +863,7 @@
         <v>-59000000.123400003</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -877,15 +879,15 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -893,9 +895,9 @@
         <v>620</v>
       </c>
       <c r="B1"/>
-      <c r="C1" t="str">
-        <f>TEXT(A1,"yyyy\-mm\-ddThh\:mm\:ss")</f>
-        <v>yyyy-00-dd1200:00:00</v>
+      <c r="C1" s="24">
+        <f t="shared" ref="C1:C35" si="0">A1</f>
+        <v>620</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -909,9 +911,9 @@
         <v>1716.5</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C12" si="0">TEXT(A2,"yyyy\-mm\-ddThh\:mm\:ss")</f>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C2" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -924,9 +926,9 @@
       <c r="A3" s="1">
         <v>40140</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd2400:00:00</v>
+      <c r="C3" s="24">
+        <f t="shared" si="0"/>
+        <v>40140</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -936,18 +938,18 @@
       <c r="A4" s="1">
         <v>46386</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd3100:00:00</v>
+      <c r="C4" s="24">
+        <f t="shared" si="0"/>
+        <v>46386</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd100:00:00</v>
+      <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -957,9 +959,9 @@
       <c r="A6" s="3">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -969,27 +971,27 @@
       <c r="A7" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd101:00:00</v>
+      <c r="C7" s="24">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>0.125</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd103:00:00</v>
+      <c r="C8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>0.5</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd112:00:00</v>
+      <c r="C9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -999,27 +1001,27 @@
       <c r="A10" s="3">
         <v>0.75</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-00-dd118:00:00</v>
+      <c r="C10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>0.99930555555555556</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-59-dd123:59:00</v>
+      <c r="C11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99930555555555556</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -1029,9 +1031,9 @@
       <c r="A13" s="19">
         <v>1716.5</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13:C36" si="1">TEXT(A13,"yyyy\-mm\-ddThh\:mm\:ss")</f>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C13" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1044,9 +1046,9 @@
       <c r="A14" s="11">
         <v>1716.5</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C14" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1059,9 +1061,9 @@
       <c r="A15" s="12">
         <v>1716.5</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C15" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1074,9 +1076,9 @@
       <c r="A16" s="13">
         <v>1716.5</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C16" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1089,9 +1091,9 @@
       <c r="A17" s="14">
         <v>1716.5</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C17" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1104,54 +1106,54 @@
       <c r="A18" s="15">
         <v>1716.5</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C18" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="16">
         <v>1716.5</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C19" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="17">
         <v>1716.5</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd1212:00:00</v>
+      <c r="C20" s="24">
+        <f t="shared" si="0"/>
+        <v>1716.5</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="19">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C21" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -1164,9 +1166,9 @@
       <c r="A22" s="11">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C22" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1179,9 +1181,9 @@
       <c r="A23" s="12">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C23" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1194,9 +1196,9 @@
       <c r="A24" s="13">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C24" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -1209,9 +1211,9 @@
       <c r="A25" s="14">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C25" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -1224,54 +1226,54 @@
       <c r="A26" s="15">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C26" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="16">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C27" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17">
         <v>1.1574074074074073E-5</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-00-dd100:00:01</v>
+      <c r="C28" s="24">
+        <f t="shared" si="0"/>
+        <v>1.1574074074074073E-5</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="19">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C29" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1284,9 +1286,9 @@
       <c r="A30" s="11">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C30" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1299,9 +1301,9 @@
       <c r="A31" s="12">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C31" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1314,9 +1316,9 @@
       <c r="A32" s="13">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C32" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1329,9 +1331,9 @@
       <c r="A33" s="14">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C33" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1344,45 +1346,45 @@
       <c r="A34" s="15">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C34" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="16">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C35" s="24">
+        <f t="shared" si="0"/>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="17">
         <v>0.99998842592592585</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="1"/>
-        <v>yyyy-59-dd123:59:59</v>
+      <c r="C36" s="24">
+        <f>A36</f>
+        <v>0.99998842592592585</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1390,10 +1392,10 @@
         <v>0.15638888888888888</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1401,10 +1403,10 @@
         <v>1.1563888888888889</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5">
